--- a/covid/datasets/positivos_covid_zac.xlsx
+++ b/covid/datasets/positivos_covid_zac.xlsx
@@ -778,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1148,7 +1148,7 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="3">
         <v>22.77093</v>

--- a/covid/datasets/positivos_covid_zac.xlsx
+++ b/covid/datasets/positivos_covid_zac.xlsx
@@ -778,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -824,9 +824,7 @@
       <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
+      <c r="C2"/>
       <c r="D2" s="3">
         <v>21.470279999999999</v>
       </c>
@@ -841,9 +839,7 @@
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
+      <c r="C3"/>
       <c r="D3" s="3">
         <v>21.966670000000001</v>
       </c>
@@ -858,9 +854,7 @@
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
+      <c r="C4"/>
       <c r="D4" s="3">
         <v>21.808820000000001</v>
       </c>
@@ -875,9 +869,7 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
+      <c r="C5"/>
       <c r="D5" s="3">
         <v>22.950150000000001</v>
       </c>
@@ -892,9 +884,7 @@
       <c r="B6" t="s">
         <v>128</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
+      <c r="C6"/>
       <c r="D6" s="3">
         <v>23.552969999999998</v>
       </c>
@@ -909,9 +899,7 @@
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
+      <c r="C7"/>
       <c r="D7" s="3">
         <v>23.475829999999998</v>
       </c>
@@ -926,9 +914,7 @@
       <c r="B8" t="s">
         <v>126</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
+      <c r="C8"/>
       <c r="D8" s="3">
         <v>24.527950000000001</v>
       </c>
@@ -943,9 +929,7 @@
       <c r="B9" t="s">
         <v>137</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
+      <c r="C9"/>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
@@ -960,9 +944,7 @@
       <c r="B10" t="s">
         <v>138</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
+      <c r="C10"/>
       <c r="D10" s="3">
         <v>22.094570000000001</v>
       </c>
@@ -977,9 +959,7 @@
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
+      <c r="C11"/>
       <c r="D11" s="3">
         <v>24.520980000000002</v>
       </c>
@@ -994,9 +974,7 @@
       <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
+      <c r="C12"/>
       <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1028,9 +1006,7 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
+      <c r="C14"/>
       <c r="D14" s="3">
         <v>22.490169999999999</v>
       </c>
@@ -1045,9 +1021,7 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
+      <c r="C15"/>
       <c r="D15" s="3">
         <v>22.997119999999999</v>
       </c>
@@ -1062,9 +1036,7 @@
       <c r="B16" t="s">
         <v>133</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
+      <c r="C16"/>
       <c r="D16" s="3">
         <v>24.268920000000001</v>
       </c>
@@ -1079,9 +1051,7 @@
       <c r="B17" t="s">
         <v>134</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
+      <c r="C17"/>
       <c r="D17" s="3">
         <v>22.633330000000001</v>
       </c>
@@ -1113,9 +1083,7 @@
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
+      <c r="C19"/>
       <c r="D19" s="3">
         <v>21.774570000000001</v>
       </c>
@@ -1130,9 +1098,7 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
+      <c r="C20"/>
       <c r="D20" s="3">
         <v>21.71285</v>
       </c>
@@ -1164,9 +1130,7 @@
       <c r="B22" t="s">
         <v>129</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
+      <c r="C22"/>
       <c r="D22" s="3">
         <v>23.245629999999998</v>
       </c>
@@ -1181,9 +1145,7 @@
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
+      <c r="C23"/>
       <c r="D23" s="3">
         <v>24.181049999999999</v>
       </c>
@@ -1198,9 +1160,7 @@
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
+      <c r="C24"/>
       <c r="D24" s="3">
         <v>21.930589999999999</v>
       </c>
@@ -1215,9 +1175,7 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
+      <c r="C25"/>
       <c r="D25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1232,9 +1190,7 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
+      <c r="C26"/>
       <c r="D26" s="3">
         <v>22.50309</v>
       </c>
@@ -1249,9 +1205,7 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
+      <c r="C27"/>
       <c r="D27" s="3">
         <v>24.815519999999999</v>
       </c>
@@ -1266,9 +1220,7 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
+      <c r="C28"/>
       <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
@@ -1283,9 +1235,7 @@
       <c r="B29" t="s">
         <v>144</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
+      <c r="C29"/>
       <c r="D29" s="3">
         <v>21.214649999999999</v>
       </c>
@@ -1300,9 +1250,7 @@
       <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
+      <c r="C30"/>
       <c r="D30" s="3">
         <v>24.237629999999999</v>
       </c>
@@ -1317,9 +1265,7 @@
       <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
+      <c r="C31"/>
       <c r="D31" s="3">
         <v>23.66667</v>
       </c>
@@ -1334,9 +1280,7 @@
       <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
+      <c r="C32"/>
       <c r="D32" s="3">
         <v>22.624749999999999</v>
       </c>
@@ -1351,9 +1295,7 @@
       <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
+      <c r="C33"/>
       <c r="D33" s="3" t="s">
         <v>57</v>
       </c>
@@ -1368,9 +1310,7 @@
       <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
+      <c r="C34"/>
       <c r="D34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1385,9 +1325,7 @@
       <c r="B35" t="s">
         <v>142</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
+      <c r="C35"/>
       <c r="D35" s="3">
         <v>21.36504</v>
       </c>
@@ -1402,9 +1340,7 @@
       <c r="B36" t="s">
         <v>146</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
+      <c r="C36"/>
       <c r="D36" s="3">
         <v>22.381430000000002</v>
       </c>
@@ -1419,9 +1355,7 @@
       <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
+      <c r="C37"/>
       <c r="D37" s="3">
         <v>22.432980000000001</v>
       </c>
@@ -1436,9 +1370,7 @@
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
+      <c r="C38"/>
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -1453,9 +1385,7 @@
       <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
+      <c r="C39"/>
       <c r="D39" s="3">
         <v>22.297280000000001</v>
       </c>
@@ -1470,9 +1400,7 @@
       <c r="B40" t="s">
         <v>127</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
+      <c r="C40"/>
       <c r="D40" s="3">
         <v>23.855519999999999</v>
       </c>
@@ -1487,9 +1415,7 @@
       <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
+      <c r="C41"/>
       <c r="D41" s="3">
         <v>23.630659999999999</v>
       </c>
@@ -1504,9 +1430,7 @@
       <c r="B42" t="s">
         <v>145</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
+      <c r="C42"/>
       <c r="D42" s="3">
         <v>21.506309999999999</v>
       </c>
@@ -1538,9 +1462,7 @@
       <c r="B44" t="s">
         <v>135</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
+      <c r="C44"/>
       <c r="D44" s="3">
         <v>22.613479999999999</v>
       </c>
@@ -1555,9 +1477,7 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
+      <c r="C45"/>
       <c r="D45" s="3">
         <v>21.860520000000001</v>
       </c>
@@ -1572,9 +1492,7 @@
       <c r="B46" t="s">
         <v>139</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
+      <c r="C46"/>
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1606,9 +1524,7 @@
       <c r="B48" t="s">
         <v>140</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
+      <c r="C48"/>
       <c r="D48" s="3">
         <v>21.41132</v>
       </c>
@@ -1623,9 +1539,7 @@
       <c r="B49" t="s">
         <v>132</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
+      <c r="C49"/>
       <c r="D49" s="3">
         <v>21.780190000000001</v>
       </c>
@@ -1640,9 +1554,7 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
+      <c r="C50"/>
       <c r="D50" s="3">
         <v>22.817250000000001</v>
       </c>
@@ -1657,9 +1569,7 @@
       <c r="B51" t="s">
         <v>141</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
+      <c r="C51"/>
       <c r="D51" s="3">
         <v>21.866669999999999</v>
       </c>
@@ -1674,9 +1584,7 @@
       <c r="B52" t="s">
         <v>130</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
+      <c r="C52"/>
       <c r="D52" s="3">
         <v>22.821210000000001</v>
       </c>
@@ -1691,9 +1599,7 @@
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
+      <c r="C53"/>
       <c r="D53" s="3">
         <v>22.834019999999999</v>
       </c>
@@ -1708,9 +1614,7 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
+      <c r="C54"/>
       <c r="D54" s="3">
         <v>23.78415</v>
       </c>
@@ -1725,9 +1629,7 @@
       <c r="B55" t="s">
         <v>136</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
+      <c r="C55"/>
       <c r="D55" s="3">
         <v>22.106629999999999</v>
       </c>
@@ -1742,9 +1644,7 @@
       <c r="B56" t="s">
         <v>131</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
+      <c r="C56"/>
       <c r="D56" s="3">
         <v>22.56775</v>
       </c>
@@ -1759,9 +1659,7 @@
       <c r="B57" t="s">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
+      <c r="C57"/>
       <c r="D57" s="3" t="s">
         <v>61</v>
       </c>
